--- a/CRUDCreateCode/data/input/models/UserProfile.xlsx
+++ b/CRUDCreateCode/data/input/models/UserProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696C431-B5AD-0646-B5F1-AEC4B3F84F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BBE4C4-70F9-564A-A4C4-4310ED5034CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="11" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>Variable</t>
   </si>
@@ -76,24 +76,6 @@
     <t>ForeignKey</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>"html"</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>retrieve</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>functions</t>
   </si>
   <si>
@@ -139,10 +121,6 @@
     <t>auto_now</t>
   </si>
   <si>
-    <t xml:space="preserve">    def __str__(self):
-        return self.name</t>
-  </si>
-  <si>
     <t>verbose_name</t>
   </si>
   <si>
@@ -170,9 +148,6 @@
     <t>models.CharField</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -185,23 +160,10 @@
     <t>diff</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
     <t>FIN =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    class Meta:
-        verbose_name = 'Product'
-        verbose_name_plural = 'Products'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    class Meta:
-        verbose_name = 'Category'
-        verbose_name_plural = 'Categories'</t>
   </si>
   <si>
     <t>UserProfile(models.Model):</t>
@@ -300,6 +262,9 @@
   </si>
   <si>
     <t>"History"</t>
+  </si>
+  <si>
+    <t>app_name</t>
   </si>
 </sst>
 </file>
@@ -676,370 +641,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="12" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="U2" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
       <c r="P4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
       <c r="P8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
       <c r="P9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="S12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O16" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="P16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O17" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="26" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O26" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="26" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O27" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="35" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O35" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="35" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O36" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="Y36" s="2"/>
-    </row>
-    <row r="49" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O49" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="49" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O50" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
-    <row r="59" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O59" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="59" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="Y59" s="2"/>
-    </row>
-    <row r="60" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O60" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="Y60" s="2"/>
-    </row>
-    <row r="68" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O68" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="68" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O69" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Z68" s="2"/>
+    </row>
+    <row r="69" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="Y69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Z69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,18 +1047,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9946-B381-0247-B0AA-E67A7DD58800}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1070,18 +1073,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D736743-F982-B748-AF4D-941EEF6BA5FF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1091,52 +1099,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1146,103 +1125,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1280,33 +1236,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1319,14 +1275,14 @@
         <v>models.OneToOneField</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D5" t="str">
         <f>RIGHT(K5,U5-S5)</f>
         <v>models.OneToOneField(User,on_delete=models.CASCADE)</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S5">
         <f>FIND("=",K5)</f>
@@ -1355,14 +1311,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D12" si="1">RIGHT(K6,U6-S6)</f>
         <v>models.CharField(max_length=15,blank=True)</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="S6">
         <f t="shared" ref="S6:S12" si="2">FIND("=",K6)</f>
@@ -1391,14 +1347,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=255,blank=True)</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
@@ -1427,14 +1383,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=255,blank=True)</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
@@ -1463,14 +1419,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=50,blank=True)</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
@@ -1499,14 +1455,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=50,blank=True)</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
@@ -1535,14 +1491,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=50,blank=True)</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
@@ -1571,14 +1527,14 @@
         <v>models.CharField</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>models.CharField(max_length=20,blank=True)</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
@@ -1607,14 +1563,14 @@
         <v>models.DateField</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D13" t="str">
         <f>RIGHT(K13,U13-S13)</f>
         <v>models.DateField(null=True,blank=True)</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="S13">
         <f>FIND("=",K13)</f>
@@ -1640,20 +1596,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2C598B-9EFB-864F-BB36-744E7D9C51C6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1663,20 +1622,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3594CB2-5CEB-FA4E-8D4F-96BCA93A1CC3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1686,31 +1648,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC848DF8-2DCC-D442-88F0-8D70EA2B49CF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="122.33203125" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1720,28 +1688,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521218A-41C1-6B4F-B61B-0156CB25180A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1751,26 +1725,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5DCB6D-D252-554A-AA6D-EF7613AF9735}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,18 +1758,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCD04C-73D9-ED48-83F8-2B0724B93DB6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
